--- a/Website_Emails.xlsx
+++ b/Website_Emails.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,30 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://fmfb.com.af</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>info@fmfb.com.af</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://sanayee.org.af</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>info@sanayee.org.af</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Website_Emails.xlsx
+++ b/Website_Emails.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,1218 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://mew.gov.af</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>info@mew.gov.af</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://ariatarget.com</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>info@ariatarget.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://ans.af</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>info@ans.af, sales@ans.af</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://arg.af</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>sales@skynetlab.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://moj.gov.af</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>info@moj.gov.af</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://atr-consulting.com</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>contact@atr-consulting.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://rrcc.af</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>marketing@rrcc.af</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://pak-ks.org</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>marketing@pak-ks.org, info@pak-ks.org</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://abkons.com</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>info@abkons.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://imb.al</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>billing@imb.al</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://ccbs.al</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>info@cocacola.al</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://balfin.al</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>info@balfin.al</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://kontakt.al</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>info@kontakt.al</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://albpetrol.al</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>info@albpetrol.al</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://agikons.com</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>info@agikons.com, info@magutilities.com, info@atdg.al, info@selcom.al, info@ga-constructions.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://salus.al</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>info@salus.al</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://unishk.edu.al</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>info@unishk.edu.al</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://century21albania.com</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>info@c21capital.al, info@c21marina.al, info@c21select.al, info@c21everestplus.al, info@c21imperium.al, info@c21epidamn.al, info@c21premier.al, info@c21irg.al, info@c21bosko.al, info@c21gold.al, info@c21premium.al, info@c21vision.al, info@c21abitat.al, info@c21impact.al, info@c21solution.al, info@c21sun.al, info@c21oksford.al, info@c21eon.al, info@c21dream.al, info@c21millennium.al, info@c21action.al, info@c21speed.al, info@c21terra.al, info@c21titan.al, info@c21oazis.al, info@c21coast.al, info@c21prestige.al, info@c21elite.al, info@c21legacy.al, info@c21atlantic.al, info@c21aulona.al, info@century21atrium.com, info@c21adore.al, info@c21metropol.al, info@c21partners.al, info@c21royal.al, info@c21astoria.al, info@c21roy.al, info@c21everest.al, info@c21expert.al, info@c21neom.al</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://digicom.al</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>contact@digicom.al</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://itegrup.al</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>info@itegroup.al</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://ehwgmbh.com</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>info@ehwgmbh.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://kalo-attorneys.com</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>info@kalo-attorneys.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://wat.al</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>info@wat.al, info@orbitaled.com, Info@wat.al</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://salama-assurances.dz</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>contact@salama-assurances.dz</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://eshra.dz</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>info@eshra.dz</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://emploitic.com</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>contact@emploitic.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://lotusconseil.com</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>contact@lotusconseil.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://tbwadjaz.com</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>contact@tbwadjaz.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://tapidor.net</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>contact@mysite.com, contact@tapidor.com, Contact@tapidor.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://global-axis.com</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>info@global-axis.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://petroser.dz</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>hello@sahmtech.dz</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://nolis-spa.com</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>contact@nolis-spa.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://hb-technologies.com.dz</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>contact@hb-technologies.dz</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://estel-ra.dz</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>contact@estel-ra.dz</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://navipap.com</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>contact@cartonnerie-moderne.com, contact@ramos-dz.com, contact@navigraph-dz.com, contact@navipap-dz.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://alc-dz.net</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>contact@alc-dz.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://algerie-catering.com</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>contact@algerie-catering.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://youkais-constructor.com</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>contact@youkais-constructor.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://ttro-dz.com</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>contact@ttro-dz.com, info@ttro-dz.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://labosalem.com</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>contact@labosalem.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://ewamax.com</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>contact@ewamax.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://stagma-construction.com</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Contact@stagma-dz.com, contact@stagma-dz.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://crasc.dz</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>contact@crasc.dz</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://ewamax.fr</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>contact@ewamax.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://caarama.dz</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>contact@caarama.dz</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://enac-dz.com</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>contact@enac-dz.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://pmg.dz</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>marketing@pmg.dz</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://berlitz.dz</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>info@berlitz.dz</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://lcc-algeria.com</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>support@ayrade.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://algeofleet.com</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>support@algeofleet.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://abcom-dz.com</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>contact@abcom-dz.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://ayrade.com</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>support@ayrade.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://issal.dz</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>support@onlyoffice.com, sales@onlyoffice.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://intellixgroup.com</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>contact@intellixgroup.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://julia.ad</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>info@perfumeriajulia.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://tda.ad</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>info@tda.ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://sonamet.com</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>info@sonamet.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://atlasgroup.co.ao</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>info@atlasgroup.co.ao</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://cimertexangola.com</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>info@cimertexangola.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://backcommunication.com</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>feedback@backcommunication.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://anglec.com</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>info@anglec.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://gruposlots.com.ar</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>info@redmulticash.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://dataiq.com.ar</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>marketing@dataiq.com.ar, info@dataiq.uy</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://think-thanks.com</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>info@think-thanks.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://swanturismo.com.ar</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>info@swanturismo.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://bs.com.ar</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>info@gatodumas.com, info@bs.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://zoologic.com.ar</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>info@zoologic.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://protech.com.ar</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>info@protechcompany.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://provokersite.com</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>info@provokersite.com, info@provokers.com.co</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://arg.com</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>admin@telepathy.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://institutozaldivar.com</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>info@zaldivar.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://investigacionesmedicas.com</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>info@investigacionesmedicas.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://mae.com.ar</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>info@a3mercados.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://delfos.tur.ar</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>info@delfos.tur.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://vinesofmendoza.com</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>jobs@vinesofmendoza.com, info@vinesofmendoza.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://alpi.org.ar</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>info@alpi.org.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://megatech.la</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>info@megatech.la</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://casinomagic.com.ar</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>info@capoker.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://accionpoint.com</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>info@accionpoint.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://caem.com.ar</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>info@grupoindubol.com, info@caem.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://supertoledo.com</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>marketing@supertoledo.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://gestion-resellers.com.ar</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>marketing@polytech.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://tecmacointegral.com.ar</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>info@tecmaco.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://eaya.com.ar</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>info@eaya.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://bancodealimentos.org.ar</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>info@bancodealimentos.org.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://fundami.com.ar</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>info@fundami.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://iecs.org.ar</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>info@iecs.org.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://dibutec.com.ar</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>info@dibutec.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://celomat.com.ar</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>info@celomat.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://laslenas.com</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>marketing@laslenas.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://contactel.com.ar</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>info@contactel.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://halitus.com</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>info@halitus.com, info@halitusdermatologiayestetica.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://vetanco.com</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>admin@afrivet.co.za, sales@alzaher-uae.com, office@drbata.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://nxtplabs.com</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>info@nxtp.vc</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://cardon.com.ar</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>info@leren.com.ar, info@leren.com.es, info@leren.com.mx</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://varifarma.com.ar</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>info@varifarma.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://cerestolvas.com.ar</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>info@cerestolvas.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://gamasi.com.ar</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>info@gamasi.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://cisgroupla.com</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>info@cisgroupla.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://lightech.biz</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>info@lightech.com.uy, info@lightech.com.br, info@lightech.com.mx, info@lightech.cl, info@lightech.biz</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://viajobien.com</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>marketing@viajobien.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Website_Emails.xlsx
+++ b/Website_Emails.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,6 +1705,1038 @@
         </is>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://xelere.com</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>info@xelere.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://iag.com.ar</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>info@iag.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://keepcon.com</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>info@keepcon.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://trendingenieria.com.ar</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>info@trendingenieria.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://imagecampus.com.ar</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>info@imagecampus.edu.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://fls.org.ar</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>info@fls.org.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://powersolution.com.ar</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>info@powersolution.es, info@powersolution.com.ar, info@ps-iberia.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://q4tech.com</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>info@q4tech.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://fwtv.tv</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>info@fwtv.tv</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://abeceb.com</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>info@abeceb.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://toribioachaval.com</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>info@toribioachaval.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://viditec.com</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>marketing@viditec.com.ar, info@viditec.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://afluenta.com</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>info@afluenta.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://renova.com.ar</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>info@renova.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://kornpropiedades.com.ar</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>info@kornpropiedades.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://ucel.edu.ar</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>info@ucel.edu.arHorario</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://bodegadelfindelmundo.com</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>info@bdfm.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://maprimed.com</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>info@maprimed.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://sifeme.com</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>info@sifemesa.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://siscard.com</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>info@siscard.com.ar, info@siscardperu.pe</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://gestiva.com.ar</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>info@gestiva.com.arg, info@gestiva.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://obrasysistemas.com.ar</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>info@obrasysistemas.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://loyal-solutions.com</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>info@loyal-solutions.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://grupolpa.com</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>info@grupolpa.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://gleba.com.ar</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>info@gleba.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://cytcomunicaciones.com</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>info@cytcomunicaciones.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://softland.com.ar</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>info@softland.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://ieserh.com.ar</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>info@ieserh.edu.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://tracegroup.com.ar</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>info@tracegroup.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://cimientos.org</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>info@cimientos.org</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://laninia.com</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>hello@laninia.com, jobs@laninia.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://tucumanturismo.gob.ar</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>info@riodearena.com, info@fincaalbarossa.com, info@bodegalasarcas.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://moellerip.com</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Marketing@moellerip.com, hello@moellerip.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://dediego.com.ar</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>info@dediego.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://brons.com.ar</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>info@brons.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://enerminds.com</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>info@prometium.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://navicon.com.ar</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>info@navicon.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://close-upinternational.com</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>info@close-upinternational.com, info@closeupus.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://bhp-global.com</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>info@bhp-global.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://fscnet.com.ar</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>info@fsc.com.ar, info@fscnet.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://gruposanmiguel.com.ar</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>info@gruposanmiguel.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://globalprocessing.com.ar</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>info@globalprocessing.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://aadesa.com.ar</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>info@aadesa.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://iquall.net</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>hello@iquall.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://geoagro.com</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>info@geoagro.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://alea.com.ar</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>info@alea.com.ar, info@grupogaman.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://southend.com.ar</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>info@southendcorp.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://socmer.com.ar</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>info@socmer.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://publicatulibro.com.ar</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>info@publicatulibro.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://siemprearg.com</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>info@siemprearg.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://esama.com</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>office@yoursite.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://estudios-electricos.com</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>info@estudios-electricos.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://invgate.com</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>info@invgate.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://ott.edu.ar</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>info@ott.edu.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://venturi.com.ar</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>info@venturi.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://consensusgroup.net</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>sales@sokosolutions.com, info@cstechlab.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://humanagency.com.ar</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>info@humanagency.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://telextorage.com</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>info@telextorage.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://winandwinnow.com</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>contact@winandwinnow.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://borealtech.com</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>info@borealtech.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://zbv.com.ar</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>info@zbv.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://algeiba.com</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>info@algeiba.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://andesmarcargas.com</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>info@andesmarcargas.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://tb.com.ar</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Contact@tbgroup.tech, Info@tbgroup.tech</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://properati.com</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>info@properati.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://dpisa.com.ar</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>info@dpisa.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://celulosa.com.ar</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>info@celulosa.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://sistemasactivos.com</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>info@misitio.com, info@sistemasactivos.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://bas.com.ar</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>info@bas.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://silmag.com.ar</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>info@silmag.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://tradelog.com.ar</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>info@manderly.net, info@tradelog.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://tzedaka.org.ar</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>info@tzedaka.org.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://toyotacfa.com.ar</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Info@otero-fraga.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://tinsa.com.ar</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>info@tinsa.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://zillesrl.com.ar</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>info@zoxisa.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://cimet.com</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>info@cimet.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://holistor.com.ar</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>info@holistor.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://eficienciaempresaria.com</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>info@eficienciaempresaria.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://samsistemas.com.ar</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>info@samsistemas.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://txtinternational.com</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>info@txtinternational.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://grupofarallon.com</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>info@grupofarallon.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://cetecsudamericana.com.ar</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>info@penielsrl.com.ar, info@dsi.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://wineem.com.ar</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>info@wineem.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://ashira-sa.com.ar</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>info@amym-com-ar.png, info@amym.com.ar, info@ashira-sa.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://sg-sa.com.ar</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>info@simpliafacility.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://endeavor.org.ar</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>support@everlytic.com, info@endeavor.org.ar</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Website_Emails.xlsx
+++ b/Website_Emails.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B192"/>
+  <dimension ref="A1:B294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2737,6 +2737,1230 @@
         </is>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://trsym.com</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>info@tavarone.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://gypnqn.com.ar</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>info@gypnqn.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://mg54.com</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>info@mg54.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://achavalcornejo.com</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>info@achavalcornejo.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://medihome.com.ar</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>info@medihome.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://gizmosite.tv</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>jobs@gizmosite.tv</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://etman.com.ar</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>info@estacionvisual.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://p-per.com</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>info@p-per.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://midios.com</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>hello@tyler.com, info@midios.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://friolatina.com</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>info@grupoltn.com, INFO@GRUPOLTN.COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://gruposolanas.com</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>marketing@gruposolanas.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://petropack.com</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>info@petropack.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://ase.com.ar</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>info@opticaconecta.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://monitorclaves.com.ar</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>info@claves.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://royalchef.com.ar</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>info@royalchef.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://gruposbs.com</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>info@gruposbs.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://tiarg.com</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>info@tiarg.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://iprofesional.com</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>info@iprofesional.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://bluetrailsoft.com</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>sales@bluetrail.software</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://linceseguridad.com.ar</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>info@linceseguridad.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://sintectur.com.ar</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>info@sintectur.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://englishservices.com.ar</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>info@englishservices.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://emtech.com.ar</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>info@emtech.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://mastersoft.com.ar</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>info@mastersoft.com.ar, Info@mastersoft.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://zetti.com.ar</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>info@zetti.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://lylyk.com.ar</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>info@lylyk.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://ladolfina.com</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>info@ladolfina.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://elinpar.com</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>info@elinpar.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://riera.com.ar</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>info@riera.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://colinet.com.ar</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>info@colinet.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://istorming.com.ar</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>info@istorming.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://corpomedica.com.ar</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>info@corpomedica.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://we-are-around.com</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>info@we-are-around.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://ngsoluciones.com</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>info@ngsoluciones.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://ccmatienzo.com.ar</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>info@ccmatienzo.com.ar, info@matienzo.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://exisoft.com.ar</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>info@exisoft.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://feyalegria.org.ar</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>info@feyalegria.org.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://solinf-sa.com.ar</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>info@solinf-sa.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://ecopreneur.com.ar</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>info@ecopreneur.com.uy, info@ecopreneur.com.py, info@ecopreneur.com.bo, info@ecopreneur.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://agidea.com.ar</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>info@agidea.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://sooft.com.ar</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>info@sooft.tech</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://bfu.com.ar</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>info@bfu.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://sanatoriodelsalvador.com</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>info@sanatoriodelsalvador.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://plenty.tv</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>hello@plentymore.agency</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://wetcorporate.com</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>info@wetcorporate.com, INFO@WETCORPORATE.COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://grupoeconat.com</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>info@grupoeconat.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://biwares.com</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>info@biwares.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://rrpp.org.ar</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>info@feedbackpr.com.ar, info@identiapr.com, Info@rpmcomunicaciones.com.ar, marketing@pulpolatam.com, info@grupomass.net, info@speconsultores.com.ar, info@ketchum.com.ar, info@zelmirakconsultora.com, info@arenapublicaconsultores.com, info@fullpr.com.ar, info@lanusse.ar, info@ballero.com.ar, info@moscuagencia.com, info@rpmcomunicaciones.com.ar, info@capitolpac.com, info@koifman.com.ar, info@abcomunicaciones.com, info@motivacom.com, info@vgv.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://maiten.com</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>info@maiten.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://bolsasanjuan.com.ar</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>info@bolsasanjuan.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://emaservicios.com.ar</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>info@emaservicios.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://furlongincoming.com.ar</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>marketing@furlongincoming.com.ar, sales@furlongincoming.com.uy, sales@furlongincoming.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://silicanetworks.com</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>info@silicanetworks.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://nexo-group.com.ar</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Info@nexo-group.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://evolutionp.com</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>info@evolutionp.com, INFO@EVOLUTIONP.COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://isf-argentina.org</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>info@isf-argentina.org</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://pinturasvenier.com</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>info@pinturasvenier.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://assekuransa.com</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>office@mancas.ro, info@assekuransa.com, info@seaman-jo.com, info@aet-lloydsagency.com, info@ba-ty.com, info@mtscairo.com, info@mtsalexandria.com, info@mjkaquamarine.ie, info@bkk.lt, office@transpack.co.at, office@theokoch.com, info@sadaoui.net, info@castellano1869.it, info@demicheli-wassmuth.it, info@marinesurveyors.se, info@werner-brusberg-sl.com, info@liquidadores.net, info@interlloydclaims.nl, info@bdv.be, info@bianchi.com.mt, info@africamarine.be, info@cargoinspect.com, info@ostseekontor.de, info@mcleans.fr, admin@rsgamble.com, info@loadjusters.com, info@mtsportsaid.com, info@igis-surveyor.com, info@wesmans.com, info@assekeurope.es, office@scua.co.jp, office@vitsanbaku.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://cessi.org.ar</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>info@cessi.org.ar, info@prodasoftware.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>https://colegiosangabriel.com</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>info@centrodeportivosangabriel.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://room23.com.ar</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>hello@room23.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>https://espaciobuenosaires.com.ar</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>info@espaciobuenosaires.com.ar, info@espaciobuenosaires.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://telectronica.com</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>info@telectronica.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://grobocopatel.com.ar</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>info@grobocopatel.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://unobahiaclub.com</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>info@unobahiaclub.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>https://pehuenconsulting.com</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>info@pehuen.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>https://aedin.org</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>info@aedin.org</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>https://vidasilvestre.org.ar</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>info@vidasilvestre.org.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>https://jpof.com.ar</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>info@jpof.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>https://agrositio.com</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>info@agrositio.com, info@edn.org.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>https://qservices.com.ar</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>info@qservices.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>https://milhousehostel.com</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>info@milhousehostel.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>https://gemco.com.ar</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>info@gemco.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>https://ecolatina.com</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>info@ecolatina.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>https://marketec.com.ar</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>info@marketec.com.ar, info@smark.com.mx</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>https://institucionulloa.com.ar</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>info@institucionulloa.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>https://medoro.com.ar</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>info@website.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>https://qmamericas.com</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>info@qmamericas.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>https://destefano.com.ar</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>marketing@DESTEFANO1913.COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>https://ensalud.org</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>info@ensalud.org</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>https://other-guys.com</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>support@other-guys.com, sales@other-guys.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>https://fundaciondiscar.org.ar</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>info@fundaciondiscar.org.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>https://artekstands.com</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>info@artekstands.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>https://entercommla.com</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>info@entercommla.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>https://cima-it.com</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>info@cima-it.com, support@cima-it.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>https://cervantes.edu.ar</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>info@cervantes.edu.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>https://laboratoriosima.com.ar</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>info@laboratoriosima.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>https://bluedraft.com.ar</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>info@example.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>https://soicos.com</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>info@soicos.com, billing@soicos.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>https://garridolawfirm.com</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>info@garridolawfirm.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>https://adblickagro.com</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>info@adblickagro.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>https://panamer.com</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>info@panamer.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>https://diagnosticoysoluciones.com</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>info@diagnosticoysoluciones.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>https://improntait.com</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>info@improntait.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>https://istea.com.ar</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>info@unlz.edu.ar, info@udelaciudad.edu.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>https://swapconsulting.com.ar</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>info@swapconsulting.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>https://avalith.net</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>hello@avalith.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>https://lanzallamas.tv</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>info@lanzallamas.tv</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>https://incutex.com.ar</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>info@incutex.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>https://cactus.ws</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>info@cactus.ws, info@mysite.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>https://arenamaipu.com.ar</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>info@arenamaipu.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>https://argeniss.com</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>info@argeniss.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
